--- a/document/财务/项目资金预算_FishTouchers.xlsx
+++ b/document/财务/项目资金预算_FishTouchers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86501\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86501\Desktop\学习资料\软件工程专业实训\LabWebSystem\document\财务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE826C66-F39B-4506-9AAD-5A23AA567DF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8002D61-BF5F-47C1-8241-A243027A1968}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,14 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>场地费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租赁项目开发场所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数量/时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>硬件购置费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租赁空调</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软件购置费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通讯费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租赁网络服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水电汽暖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通讯设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人工费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理人员工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,27 +264,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>培训费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租赁会议室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>交通费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括出差，打车的报销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -381,11 +337,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合计：130650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>制表：刘硕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家咨询费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料动力费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括出差的报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队聚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计：98650，劳务费：42450</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -696,9 +696,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -708,40 +706,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -956,14 +930,31 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -973,64 +964,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1070,82 +1003,208 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1154,139 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1572,7 +1499,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1586,853 +1513,843 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="8"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="58"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
+        <v>1</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="23">
+        <v>600</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="33">
+        <v>2</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="20">
+        <v>8</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="15">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="33">
+        <v>3</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="20">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="15">
+        <v>20000</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="33">
+        <v>4</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="20">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="15">
+        <v>100</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="33">
+        <v>5</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="20">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5">
+        <v>500</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="33">
+        <v>6</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="24">
+        <v>500</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="33">
+        <v>7</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="15">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="33">
+        <v>8</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="15">
+        <v>100</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="33">
+        <v>9</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="23">
+        <v>8</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="23">
+        <v>8000</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="33">
+        <v>10</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="F15" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="33">
+        <v>11</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="20">
+        <v>3</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="15">
+        <v>300</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="33">
+        <v>12</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="20">
         <v>8</v>
       </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="70">
+      <c r="E17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="15">
+        <v>500</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="33">
+        <v>13</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="15">
+        <v>50</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="33">
+        <v>14</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="27">
+        <v>100</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="33">
+        <v>15</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="20">
+        <v>300</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="15">
+        <v>30</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="33">
+        <v>16</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="15">
+        <v>20</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="33">
+        <v>17</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="15">
+        <v>200</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="33">
+        <v>18</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="5">
+        <v>200</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="33">
+        <v>19</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="20">
+        <v>3</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="15">
+        <v>15300</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="33">
+        <v>20</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="20">
+        <v>2</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="15">
+        <v>10200</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="33">
+        <v>21</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="20">
+        <v>2</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="15">
+        <v>10200</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="33">
+        <v>22</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="20">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="57" t="s">
+      <c r="E27" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="15">
+        <v>6750</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="58">
-        <v>10000</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="58"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="71">
-        <v>2</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="60">
-        <v>600</v>
-      </c>
-      <c r="G7" s="46" t="s">
+      <c r="H27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="33">
+        <v>23</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="15">
+        <v>2000</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="33">
+        <v>24</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="20">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="15">
+        <v>2000</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="33">
         <v>25</v>
       </c>
-      <c r="H7" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="45"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="71">
-        <v>3</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="53">
-        <v>8</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="45">
+      <c r="B30" s="59"/>
+      <c r="C30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="20">
+        <v>1</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="15">
         <v>2000</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G30" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="33">
+        <v>26</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="45"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="71">
-        <v>4</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="53">
-        <v>3</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="45">
-        <v>300</v>
-      </c>
-      <c r="G9" s="46" t="s">
+      <c r="E31" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="15">
+        <v>3000</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>27</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="71">
-        <v>5</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="53">
-        <v>8</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="45">
-        <v>500</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="71">
-        <v>6</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="45">
-        <v>50</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="60"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="71">
-        <v>7</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="64">
-        <v>100</v>
-      </c>
-      <c r="G12" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="67"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="71">
-        <v>8</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="53">
-        <v>300</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="45">
-        <v>30</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="60"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="71">
-        <v>9</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="53">
-        <v>2</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="45">
-        <v>20</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="60"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="71">
-        <v>10</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="45">
-        <v>200</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="60"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="71">
-        <v>11</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="27">
-        <v>200</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="54"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="71">
-        <v>12</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="53">
-        <v>8</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="45">
-        <v>40000</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="71">
-        <v>13</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="53">
-        <v>3</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="45">
-        <v>100</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="60"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="71">
-        <v>14</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="53">
-        <v>5</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="27">
-        <v>500</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="71">
+      <c r="F32" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="53">
-        <v>1</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="61">
-        <v>500</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="71">
-        <v>16</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="45">
-        <v>100</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="68" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="71">
-        <v>17</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="53">
-        <v>8</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="45">
-        <v>8000</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="60" t="s">
+      <c r="H32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="61" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="71">
-        <v>18</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="53">
-        <v>1</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="45">
-        <v>15000</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="71">
-        <v>19</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="53">
-        <v>3</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="45">
-        <v>15300</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="71">
-        <v>20</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="53">
-        <v>2</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="45">
-        <v>10200</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="71">
-        <v>21</v>
-      </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="53">
-        <v>2</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="45">
-        <v>10200</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="71">
-        <v>22</v>
-      </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="53">
-        <v>1</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="45">
-        <v>6750</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="71">
-        <v>23</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="53">
-        <v>1</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="45">
-        <v>2000</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="60"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="71">
-        <v>24</v>
-      </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="53">
-        <v>1</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="45">
-        <v>2000</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="60"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="71">
-        <v>25</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="53">
-        <v>1</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="45">
-        <v>2000</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="60"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="71">
-        <v>26</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="45">
-        <v>3000</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="60"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
-        <v>27</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="28">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="69"/>
+      <c r="I33" s="65"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="33"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="18">
     <mergeCell ref="A33:C34"/>
     <mergeCell ref="D33:G34"/>
     <mergeCell ref="H33:I34"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A3:I3"/>
@@ -2440,6 +2357,11 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
